--- a/data/regression_name_list1870.xlsx
+++ b/data/regression_name_list1870.xlsx
@@ -545,7 +545,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2293,7 +2293,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2369,7 +2369,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2749,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3053,7 +3053,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3205,7 +3205,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3433,7 +3433,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3585,7 +3585,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3889,7 +3889,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3965,7 +3965,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4566,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4649,7 +4649,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4718,7 +4718,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4794,7 +4794,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4870,7 +4870,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4946,7 +4946,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5022,7 +5022,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5098,7 +5098,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5257,7 +5257,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5333,7 +5333,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5409,7 +5409,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5485,7 +5485,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5561,7 +5561,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5637,7 +5637,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5713,7 +5713,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5789,7 +5789,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5865,7 +5865,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5941,7 +5941,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -6017,7 +6017,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -6093,7 +6093,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -6169,7 +6169,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -6245,7 +6245,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -6321,7 +6321,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -6397,7 +6397,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -6473,7 +6473,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -6549,7 +6549,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -6625,7 +6625,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -6701,7 +6701,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -6777,7 +6777,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -6853,7 +6853,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -6929,7 +6929,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -7157,7 +7157,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
